--- a/Resource.xlsx
+++ b/Resource.xlsx
@@ -23045,8 +23045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D594"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23058,7 +23058,7 @@
     <col min="5" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>490</v>
       </c>
@@ -23072,7 +23072,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1235</v>
       </c>
@@ -23086,7 +23086,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1111</v>
       </c>
@@ -23100,7 +23100,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>491</v>
       </c>
@@ -23114,7 +23114,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>492</v>
       </c>
@@ -23128,7 +23128,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>1172</v>
       </c>
@@ -23142,7 +23142,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>787</v>
       </c>
@@ -23156,7 +23156,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>1170</v>
       </c>
@@ -23170,7 +23170,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>1037</v>
       </c>
@@ -23184,7 +23184,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>848</v>
       </c>
@@ -23198,7 +23198,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>494</v>
       </c>
@@ -23212,7 +23212,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1324</v>
       </c>
@@ -23226,7 +23226,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>1346</v>
       </c>
@@ -23240,7 +23240,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>493</v>
       </c>
@@ -23254,7 +23254,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>1237</v>
       </c>
@@ -23268,7 +23268,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>1239</v>
       </c>
@@ -23282,7 +23282,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>1065</v>
       </c>
@@ -23296,7 +23296,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>496</v>
       </c>
@@ -23310,7 +23310,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>497</v>
       </c>
@@ -23324,7 +23324,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>499</v>
       </c>
@@ -23338,7 +23338,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>501</v>
       </c>
@@ -23352,7 +23352,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>1121</v>
       </c>
@@ -23366,7 +23366,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>502</v>
       </c>
@@ -23380,7 +23380,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>503</v>
       </c>
@@ -23394,7 +23394,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>504</v>
       </c>
@@ -23408,7 +23408,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>505</v>
       </c>
@@ -23422,7 +23422,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>506</v>
       </c>
@@ -23436,7 +23436,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>1032</v>
       </c>
@@ -23450,7 +23450,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>1034</v>
       </c>
@@ -23464,7 +23464,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>1049</v>
       </c>
@@ -23478,7 +23478,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>729</v>
       </c>
@@ -23492,7 +23492,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>507</v>
       </c>
@@ -23506,7 +23506,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>508</v>
       </c>
@@ -23520,7 +23520,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>509</v>
       </c>
@@ -23534,7 +23534,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>755</v>
       </c>
@@ -23548,7 +23548,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>820</v>
       </c>
@@ -23562,7 +23562,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>1241</v>
       </c>
@@ -23576,7 +23576,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>510</v>
       </c>
@@ -23590,7 +23590,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>511</v>
       </c>
@@ -23604,7 +23604,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>512</v>
       </c>
@@ -23618,7 +23618,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>782</v>
       </c>
@@ -23632,7 +23632,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>769</v>
       </c>
@@ -23646,7 +23646,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>514</v>
       </c>
@@ -23660,7 +23660,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>515</v>
       </c>
@@ -23674,7 +23674,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>1209</v>
       </c>
@@ -23688,7 +23688,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>516</v>
       </c>
@@ -23702,7 +23702,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>517</v>
       </c>
@@ -23716,7 +23716,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>518</v>
       </c>
@@ -23730,7 +23730,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>728</v>
       </c>
@@ -23744,7 +23744,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>519</v>
       </c>
@@ -23758,7 +23758,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>520</v>
       </c>
@@ -23772,7 +23772,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>521</v>
       </c>
@@ -23786,7 +23786,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>1348</v>
       </c>
@@ -23800,7 +23800,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>1350</v>
       </c>
@@ -23814,7 +23814,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>743</v>
       </c>
@@ -23828,7 +23828,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>1005</v>
       </c>
@@ -23842,7 +23842,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>522</v>
       </c>
@@ -23856,7 +23856,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>741</v>
       </c>
@@ -23870,7 +23870,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>524</v>
       </c>
@@ -23884,7 +23884,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>737</v>
       </c>
@@ -23898,7 +23898,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>736</v>
       </c>
@@ -23912,7 +23912,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>1312</v>
       </c>
@@ -23926,7 +23926,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>775</v>
       </c>
@@ -23940,7 +23940,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>1532</v>
       </c>
@@ -23954,7 +23954,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>756</v>
       </c>
@@ -23968,7 +23968,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>525</v>
       </c>
@@ -23982,7 +23982,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>527</v>
       </c>
@@ -23996,7 +23996,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>1113</v>
       </c>
@@ -24010,7 +24010,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>528</v>
       </c>
@@ -24024,7 +24024,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>1243</v>
       </c>
@@ -24038,7 +24038,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>1275</v>
       </c>
@@ -24052,7 +24052,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>529</v>
       </c>
@@ -24066,7 +24066,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>1099</v>
       </c>
@@ -24080,7 +24080,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>1155</v>
       </c>
@@ -24094,7 +24094,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>1008</v>
       </c>
@@ -24108,7 +24108,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>530</v>
       </c>
@@ -24122,7 +24122,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>1105</v>
       </c>
@@ -24136,7 +24136,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>531</v>
       </c>
@@ -24150,7 +24150,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>1245</v>
       </c>
@@ -24164,7 +24164,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>1476</v>
       </c>
@@ -24178,7 +24178,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>1022</v>
       </c>
@@ -24192,7 +24192,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>1023</v>
       </c>
@@ -24206,7 +24206,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>534</v>
       </c>
@@ -24220,7 +24220,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>535</v>
       </c>
@@ -24234,7 +24234,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>1297</v>
       </c>
@@ -24248,7 +24248,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>825</v>
       </c>
@@ -24262,7 +24262,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>536</v>
       </c>
@@ -24276,7 +24276,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>537</v>
       </c>
@@ -24290,7 +24290,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>538</v>
       </c>
@@ -24304,7 +24304,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>762</v>
       </c>
@@ -24318,7 +24318,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>726</v>
       </c>
@@ -24332,7 +24332,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>1498</v>
       </c>
@@ -24346,7 +24346,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>785</v>
       </c>
@@ -24360,7 +24360,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>786</v>
       </c>
@@ -24374,7 +24374,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>1352</v>
       </c>
@@ -24388,7 +24388,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>778</v>
       </c>
@@ -24402,7 +24402,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>540</v>
       </c>
@@ -24416,7 +24416,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>779</v>
       </c>
@@ -24430,7 +24430,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>781</v>
       </c>
@@ -24444,7 +24444,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>541</v>
       </c>
@@ -24458,7 +24458,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>801</v>
       </c>
@@ -24472,7 +24472,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>796</v>
       </c>
@@ -24486,7 +24486,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>730</v>
       </c>
@@ -24500,7 +24500,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>1154</v>
       </c>
@@ -24514,7 +24514,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>546</v>
       </c>
@@ -24528,7 +24528,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>1340</v>
       </c>
@@ -24542,7 +24542,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="107" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>1287</v>
       </c>
@@ -24556,7 +24556,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>1496</v>
       </c>
@@ -24570,7 +24570,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>795</v>
       </c>
@@ -24584,7 +24584,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="110" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>1192</v>
       </c>
@@ -24598,7 +24598,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>547</v>
       </c>
@@ -24612,7 +24612,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>548</v>
       </c>
@@ -24626,7 +24626,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="113" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>727</v>
       </c>
@@ -24640,7 +24640,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="114" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>549</v>
       </c>
@@ -24654,7 +24654,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>1342</v>
       </c>
@@ -24668,7 +24668,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>550</v>
       </c>
@@ -24682,7 +24682,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>551</v>
       </c>
@@ -24696,7 +24696,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="118" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>896</v>
       </c>
@@ -24710,7 +24710,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="119" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>810</v>
       </c>
@@ -24724,7 +24724,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="120" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>552</v>
       </c>
@@ -24738,7 +24738,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="121" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>553</v>
       </c>
@@ -24752,7 +24752,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="122" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>802</v>
       </c>
@@ -24766,7 +24766,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>797</v>
       </c>
@@ -24780,7 +24780,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="124" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>554</v>
       </c>
@@ -24794,7 +24794,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="125" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>805</v>
       </c>
@@ -24808,7 +24808,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="126" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>799</v>
       </c>
@@ -24822,7 +24822,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="127" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>555</v>
       </c>
@@ -24836,7 +24836,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>556</v>
       </c>
@@ -24850,7 +24850,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="129" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>557</v>
       </c>
@@ -24864,7 +24864,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="130" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>753</v>
       </c>
@@ -24878,7 +24878,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="131" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>558</v>
       </c>
@@ -24892,7 +24892,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="132" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>826</v>
       </c>
@@ -24906,7 +24906,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="133" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>1520</v>
       </c>
@@ -24920,7 +24920,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="134" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>560</v>
       </c>
@@ -24934,7 +24934,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="135" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>792</v>
       </c>
@@ -24948,7 +24948,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="136" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>1338</v>
       </c>
@@ -24962,7 +24962,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="137" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>559</v>
       </c>
@@ -24976,7 +24976,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="138" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>888</v>
       </c>
@@ -24990,7 +24990,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="139" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>1354</v>
       </c>
@@ -25004,7 +25004,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="140" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>1247</v>
       </c>
@@ -25018,7 +25018,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="141" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>563</v>
       </c>
@@ -25032,7 +25032,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="142" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>1109</v>
       </c>
@@ -25046,7 +25046,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="143" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>564</v>
       </c>
@@ -25060,7 +25060,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="144" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>746</v>
       </c>
@@ -25074,7 +25074,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="145" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>1308</v>
       </c>
@@ -25088,7 +25088,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="146" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>566</v>
       </c>
@@ -25102,7 +25102,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="147" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>567</v>
       </c>
@@ -25116,7 +25116,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="148" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>568</v>
       </c>
@@ -25130,7 +25130,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="149" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>569</v>
       </c>
@@ -25144,7 +25144,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="150" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>570</v>
       </c>
@@ -25158,7 +25158,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="151" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>572</v>
       </c>
@@ -25172,7 +25172,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="152" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>571</v>
       </c>
@@ -25186,7 +25186,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="153" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>573</v>
       </c>
@@ -25200,7 +25200,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="154" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>574</v>
       </c>
@@ -25214,7 +25214,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="155" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>575</v>
       </c>
@@ -25228,7 +25228,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="156" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>576</v>
       </c>
@@ -25242,7 +25242,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="157" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>1332</v>
       </c>
@@ -25256,7 +25256,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="158" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>742</v>
       </c>
@@ -25270,7 +25270,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="159" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>824</v>
       </c>
@@ -25284,7 +25284,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="160" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>764</v>
       </c>
@@ -25298,7 +25298,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="161" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>748</v>
       </c>
@@ -25312,7 +25312,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="162" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>749</v>
       </c>
@@ -25326,7 +25326,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="163" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>577</v>
       </c>
@@ -25340,7 +25340,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="164" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>579</v>
       </c>
@@ -25354,7 +25354,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="165" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>580</v>
       </c>
@@ -25368,7 +25368,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="166" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>581</v>
       </c>
@@ -25382,7 +25382,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="167" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>771</v>
       </c>
@@ -25396,7 +25396,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="168" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>883</v>
       </c>
@@ -25410,7 +25410,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="169" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>1107</v>
       </c>
@@ -25424,7 +25424,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="170" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>828</v>
       </c>
@@ -25438,7 +25438,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="171" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>750</v>
       </c>
@@ -25452,7 +25452,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="172" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>807</v>
       </c>
@@ -25466,7 +25466,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="173" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>582</v>
       </c>
@@ -25480,7 +25480,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="174" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>583</v>
       </c>
@@ -25494,7 +25494,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="175" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>751</v>
       </c>
@@ -25508,7 +25508,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="176" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>1052</v>
       </c>
@@ -25522,7 +25522,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="177" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>1081</v>
       </c>
@@ -25536,7 +25536,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="178" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>584</v>
       </c>
@@ -25550,7 +25550,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="179" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>1039</v>
       </c>
@@ -25564,7 +25564,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="180" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>1249</v>
       </c>
@@ -25578,7 +25578,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="181" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>585</v>
       </c>
@@ -25592,7 +25592,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="182" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>586</v>
       </c>
@@ -25606,7 +25606,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="183" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>765</v>
       </c>
@@ -25620,7 +25620,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="184" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>587</v>
       </c>
@@ -25634,7 +25634,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="185" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>588</v>
       </c>
@@ -25648,7 +25648,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="186" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>1077</v>
       </c>
@@ -25662,7 +25662,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="187" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>1299</v>
       </c>
@@ -25676,7 +25676,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="188" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>589</v>
       </c>
@@ -25690,7 +25690,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="189" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>590</v>
       </c>
@@ -25704,7 +25704,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="190" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>591</v>
       </c>
@@ -25718,7 +25718,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="191" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>592</v>
       </c>
@@ -25732,7 +25732,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="192" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>1064</v>
       </c>
@@ -25746,7 +25746,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="193" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>811</v>
       </c>
@@ -25760,7 +25760,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="194" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>747</v>
       </c>
@@ -25774,7 +25774,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="195" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>1051</v>
       </c>
@@ -25788,7 +25788,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="196" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>597</v>
       </c>
@@ -25802,7 +25802,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="197" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>809</v>
       </c>
@@ -25816,7 +25816,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="198" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>1092</v>
       </c>
@@ -25830,7 +25830,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="199" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>598</v>
       </c>
@@ -25844,7 +25844,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="200" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>804</v>
       </c>
@@ -25858,7 +25858,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="201" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>798</v>
       </c>
@@ -25872,7 +25872,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="202" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>813</v>
       </c>
@@ -25886,7 +25886,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="203" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>599</v>
       </c>
@@ -25900,7 +25900,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="204" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>600</v>
       </c>
@@ -25914,7 +25914,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="205" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>601</v>
       </c>
@@ -25928,7 +25928,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="206" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>603</v>
       </c>
@@ -25942,7 +25942,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="207" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>1100</v>
       </c>
@@ -25956,7 +25956,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="208" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>604</v>
       </c>
@@ -25970,7 +25970,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="209" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>1547</v>
       </c>
@@ -25984,7 +25984,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="210" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>823</v>
       </c>
@@ -25998,7 +25998,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="211" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>1508</v>
       </c>
@@ -26012,7 +26012,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="212" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>605</v>
       </c>
@@ -26026,7 +26026,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="213" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>606</v>
       </c>
@@ -26040,7 +26040,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="214" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>1067</v>
       </c>
@@ -26054,7 +26054,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="215" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>878</v>
       </c>
@@ -26068,7 +26068,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="216" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>617</v>
       </c>
@@ -26082,7 +26082,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="217" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>763</v>
       </c>
@@ -26096,7 +26096,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="218" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>839</v>
       </c>
@@ -26110,7 +26110,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="219" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>1356</v>
       </c>
@@ -26124,7 +26124,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="220" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>832</v>
       </c>
@@ -26138,7 +26138,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="221" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>831</v>
       </c>
@@ -26152,7 +26152,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="222" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>816</v>
       </c>
@@ -26166,7 +26166,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="223" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>898</v>
       </c>
@@ -26180,7 +26180,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="224" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>618</v>
       </c>
@@ -26194,7 +26194,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="225" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>1188</v>
       </c>
@@ -26208,7 +26208,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="226" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>620</v>
       </c>
@@ -26222,7 +26222,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="227" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>619</v>
       </c>
@@ -26236,7 +26236,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="228" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>776</v>
       </c>
@@ -26250,7 +26250,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="229" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>745</v>
       </c>
@@ -26264,7 +26264,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="230" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
         <v>1203</v>
       </c>
@@ -26278,7 +26278,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="231" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>1204</v>
       </c>
@@ -26292,7 +26292,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="232" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
         <v>1205</v>
       </c>
@@ -26306,7 +26306,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="233" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>740</v>
       </c>
@@ -26320,7 +26320,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="234" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>621</v>
       </c>
@@ -26334,7 +26334,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="235" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
         <v>1344</v>
       </c>
@@ -26348,7 +26348,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="236" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
         <v>900</v>
       </c>
@@ -26362,7 +26362,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="237" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
         <v>1221</v>
       </c>
@@ -26376,7 +26376,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="238" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>489</v>
       </c>
@@ -26390,7 +26390,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="239" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
         <v>858</v>
       </c>
@@ -26404,7 +26404,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="240" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>814</v>
       </c>
@@ -26418,7 +26418,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="241" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
         <v>1289</v>
       </c>
@@ -26432,7 +26432,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="242" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
         <v>788</v>
       </c>
@@ -26446,7 +26446,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="243" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
         <v>780</v>
       </c>
@@ -26460,7 +26460,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="244" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
         <v>830</v>
       </c>
@@ -26474,7 +26474,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="245" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
         <v>1457</v>
       </c>
@@ -26488,7 +26488,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="246" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
         <v>767</v>
       </c>
@@ -26502,7 +26502,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="247" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
         <v>1171</v>
       </c>
@@ -26516,7 +26516,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="248" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
         <v>1116</v>
       </c>
@@ -26530,7 +26530,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="249" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
         <v>1117</v>
       </c>
@@ -26544,7 +26544,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="250" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
         <v>851</v>
       </c>
@@ -26558,7 +26558,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="251" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
         <v>759</v>
       </c>
@@ -26572,7 +26572,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="252" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
         <v>757</v>
       </c>
@@ -26586,7 +26586,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="253" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
         <v>1318</v>
       </c>
@@ -26600,7 +26600,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="254" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
         <v>766</v>
       </c>
@@ -26614,7 +26614,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="255" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
         <v>648</v>
       </c>
@@ -26628,7 +26628,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="256" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
         <v>758</v>
       </c>
@@ -26642,7 +26642,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="257" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
         <v>829</v>
       </c>
@@ -26656,7 +26656,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="258" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
         <v>649</v>
       </c>
@@ -26670,7 +26670,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="259" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
         <v>650</v>
       </c>
@@ -26684,7 +26684,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="260" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
         <v>793</v>
       </c>
@@ -26698,7 +26698,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="261" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
         <v>651</v>
       </c>
@@ -26712,7 +26712,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="262" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
         <v>652</v>
       </c>
@@ -26726,7 +26726,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="263" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>1516</v>
       </c>
@@ -26740,7 +26740,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="264" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
         <v>794</v>
       </c>
@@ -26754,7 +26754,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="265" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
         <v>1256</v>
       </c>
@@ -26768,7 +26768,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="266" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
         <v>653</v>
       </c>
@@ -26782,7 +26782,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="267" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
         <v>725</v>
       </c>
@@ -26796,7 +26796,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="268" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
         <v>657</v>
       </c>
@@ -26810,7 +26810,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="269" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
         <v>658</v>
       </c>
@@ -26824,7 +26824,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="270" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
         <v>777</v>
       </c>
@@ -26838,7 +26838,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="271" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
         <v>656</v>
       </c>
@@ -26852,7 +26852,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="272" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
         <v>822</v>
       </c>
@@ -26866,7 +26866,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="273" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
         <v>812</v>
       </c>
@@ -26880,7 +26880,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="274" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
         <v>783</v>
       </c>
@@ -26894,7 +26894,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="275" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
         <v>815</v>
       </c>
@@ -26908,7 +26908,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="276" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
         <v>817</v>
       </c>
@@ -26922,7 +26922,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="277" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
         <v>1213</v>
       </c>
@@ -26936,7 +26936,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="278" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
         <v>842</v>
       </c>
@@ -26950,7 +26950,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="279" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
         <v>843</v>
       </c>
@@ -26964,7 +26964,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="280" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>1527</v>
       </c>
@@ -26978,7 +26978,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="281" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
         <v>1097</v>
       </c>
@@ -26992,7 +26992,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="282" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
         <v>659</v>
       </c>
@@ -27006,7 +27006,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="283" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
         <v>1215</v>
       </c>
@@ -27020,7 +27020,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="284" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
         <v>894</v>
       </c>
@@ -27034,7 +27034,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="285" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
         <v>789</v>
       </c>
@@ -27048,7 +27048,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="286" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>1541</v>
       </c>
@@ -27062,7 +27062,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="287" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
         <v>1122</v>
       </c>
@@ -27076,7 +27076,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="288" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
         <v>818</v>
       </c>
@@ -27090,7 +27090,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="289" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
         <v>1112</v>
       </c>
@@ -27104,7 +27104,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="290" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
         <v>660</v>
       </c>
@@ -27118,7 +27118,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="291" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
         <v>773</v>
       </c>
@@ -27132,7 +27132,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="292" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
         <v>662</v>
       </c>
@@ -27146,7 +27146,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="293" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
         <v>663</v>
       </c>
@@ -27160,7 +27160,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="294" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
         <v>772</v>
       </c>
@@ -27174,7 +27174,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="295" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
         <v>1168</v>
       </c>
@@ -27188,7 +27188,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="296" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
         <v>754</v>
       </c>
@@ -27202,7 +27202,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="297" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
         <v>664</v>
       </c>
@@ -27216,7 +27216,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="298" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
         <v>1259</v>
       </c>
@@ -27230,7 +27230,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="299" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
         <v>1118</v>
       </c>
@@ -27244,7 +27244,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="300" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
         <v>1261</v>
       </c>
@@ -27258,7 +27258,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="301" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
         <v>666</v>
       </c>
@@ -27272,7 +27272,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="302" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
         <v>1072</v>
       </c>
@@ -27286,7 +27286,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="303" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
         <v>665</v>
       </c>
@@ -27300,7 +27300,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="304" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
         <v>1263</v>
       </c>
@@ -27314,7 +27314,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="305" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
         <v>1119</v>
       </c>
@@ -27328,7 +27328,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="306" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
         <v>791</v>
       </c>
@@ -27342,7 +27342,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="307" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
         <v>1301</v>
       </c>
@@ -27356,7 +27356,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="308" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
         <v>668</v>
       </c>
@@ -27370,7 +27370,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="309" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
         <v>669</v>
       </c>
@@ -27384,7 +27384,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="310" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
         <v>670</v>
       </c>
@@ -27398,7 +27398,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="311" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
         <v>672</v>
       </c>
@@ -27412,7 +27412,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="312" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
         <v>735</v>
       </c>
@@ -27426,7 +27426,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="313" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
         <v>671</v>
       </c>
@@ -27440,7 +27440,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="314" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
         <v>739</v>
       </c>
@@ -27454,7 +27454,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="315" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
         <v>1358</v>
       </c>
@@ -27468,7 +27468,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="316" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
         <v>1080</v>
       </c>
@@ -27482,7 +27482,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="317" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
         <v>1183</v>
       </c>
@@ -27496,7 +27496,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="318" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
         <v>790</v>
       </c>
@@ -27510,7 +27510,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="319" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
         <v>1165</v>
       </c>
@@ -27524,7 +27524,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="320" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
         <v>808</v>
       </c>
@@ -27538,7 +27538,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="321" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
         <v>677</v>
       </c>
@@ -27552,7 +27552,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="322" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
         <v>1223</v>
       </c>
@@ -27566,7 +27566,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="323" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
         <v>1166</v>
       </c>
@@ -27580,7 +27580,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="324" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
         <v>890</v>
       </c>
@@ -27594,7 +27594,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="325" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
         <v>1115</v>
       </c>
@@ -27608,7 +27608,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="326" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
         <v>1011</v>
       </c>
@@ -27622,7 +27622,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="327" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
         <v>734</v>
       </c>
@@ -27636,7 +27636,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="328" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
         <v>673</v>
       </c>
@@ -27650,7 +27650,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="329" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="6" t="s">
         <v>674</v>
       </c>
@@ -27664,7 +27664,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="330" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="6" t="s">
         <v>738</v>
       </c>
@@ -27678,7 +27678,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="331" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
         <v>1110</v>
       </c>
@@ -27692,7 +27692,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="332" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
         <v>1167</v>
       </c>
@@ -27706,7 +27706,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="333" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
         <v>1224</v>
       </c>
@@ -27720,7 +27720,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="334" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
         <v>675</v>
       </c>
@@ -27734,7 +27734,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="335" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
         <v>1120</v>
       </c>
@@ -27748,7 +27748,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="336" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
         <v>676</v>
       </c>
@@ -27762,7 +27762,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="337" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
         <v>678</v>
       </c>
@@ -27776,7 +27776,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="338" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
         <v>679</v>
       </c>
@@ -27790,7 +27790,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="339" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
         <v>684</v>
       </c>
@@ -27804,7 +27804,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="340" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
         <v>680</v>
       </c>
@@ -27818,7 +27818,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="341" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
         <v>681</v>
       </c>
@@ -27832,7 +27832,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="342" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
         <v>685</v>
       </c>
@@ -27846,7 +27846,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="343" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
         <v>682</v>
       </c>
@@ -27860,7 +27860,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="344" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
         <v>686</v>
       </c>
@@ -27874,7 +27874,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="345" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="6" t="s">
         <v>683</v>
       </c>
@@ -27888,7 +27888,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="346" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
         <v>690</v>
       </c>
@@ -27902,7 +27902,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="347" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
         <v>1304</v>
       </c>
@@ -27916,7 +27916,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="348" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
         <v>784</v>
       </c>
@@ -27930,7 +27930,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="349" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
         <v>693</v>
       </c>
@@ -27944,7 +27944,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="350" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
         <v>694</v>
       </c>
@@ -27958,7 +27958,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="351" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
         <v>695</v>
       </c>
@@ -27972,7 +27972,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="352" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
         <v>696</v>
       </c>
@@ -27986,7 +27986,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="353" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="6" t="s">
         <v>697</v>
       </c>
@@ -28000,7 +28000,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="354" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="6" t="s">
         <v>698</v>
       </c>
@@ -28014,7 +28014,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="355" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="6" t="s">
         <v>1291</v>
       </c>
@@ -28028,7 +28028,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="356" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="6" t="s">
         <v>1041</v>
       </c>
@@ -28042,7 +28042,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="357" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="6" t="s">
         <v>1114</v>
       </c>
@@ -28056,7 +28056,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="358" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="6" t="s">
         <v>761</v>
       </c>
@@ -28070,7 +28070,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="359" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
         <v>700</v>
       </c>
@@ -28084,7 +28084,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="360" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
         <v>1293</v>
       </c>
@@ -28098,7 +28098,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="361" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
         <v>701</v>
       </c>
@@ -28112,7 +28112,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="362" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
         <v>702</v>
       </c>
@@ -28126,7 +28126,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="363" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="6" t="s">
         <v>703</v>
       </c>
@@ -28140,7 +28140,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="364" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="6" t="s">
         <v>704</v>
       </c>
@@ -28154,7 +28154,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="365" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
         <v>1295</v>
       </c>
@@ -28168,7 +28168,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="366" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="6" t="s">
         <v>821</v>
       </c>
@@ -28182,7 +28182,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="367" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="6" t="s">
         <v>706</v>
       </c>
@@ -28196,7 +28196,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="368" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
         <v>1494</v>
       </c>
@@ -28210,7 +28210,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="369" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="6" t="s">
         <v>707</v>
       </c>
@@ -28224,7 +28224,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="370" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="6" t="s">
         <v>708</v>
       </c>
@@ -28238,7 +28238,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="371" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="6" t="s">
         <v>710</v>
       </c>
@@ -28252,7 +28252,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="372" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="6" t="s">
         <v>760</v>
       </c>
@@ -28266,7 +28266,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="373" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="6" t="s">
         <v>800</v>
       </c>
@@ -28280,7 +28280,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="374" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="6" t="s">
         <v>711</v>
       </c>
@@ -28294,7 +28294,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="375" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="6" t="s">
         <v>712</v>
       </c>
@@ -28308,7 +28308,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="376" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="6" t="s">
         <v>713</v>
       </c>
@@ -28322,7 +28322,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="377" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="6" t="s">
         <v>806</v>
       </c>
@@ -28336,7 +28336,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="378" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="6" t="s">
         <v>770</v>
       </c>
@@ -28350,7 +28350,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="379" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="6" t="s">
         <v>714</v>
       </c>
@@ -28364,7 +28364,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="380" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="6" t="s">
         <v>768</v>
       </c>
@@ -28378,7 +28378,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="381" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="6" t="s">
         <v>1152</v>
       </c>
@@ -28392,7 +28392,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="382" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="6" t="s">
         <v>827</v>
       </c>
@@ -28406,7 +28406,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="383" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="6" t="s">
         <v>774</v>
       </c>
@@ -28420,7 +28420,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="384" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="6" t="s">
         <v>1194</v>
       </c>
@@ -28434,7 +28434,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="385" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="6" t="s">
         <v>1190</v>
       </c>
@@ -28448,7 +28448,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="386" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="6" t="s">
         <v>892</v>
       </c>
@@ -28462,7 +28462,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="387" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="7" t="s">
         <v>1500</v>
       </c>
@@ -28476,7 +28476,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="388" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="6" t="s">
         <v>1098</v>
       </c>
@@ -28490,7 +28490,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="389" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="6" t="s">
         <v>1461</v>
       </c>
@@ -28504,7 +28504,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="390" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="6" t="s">
         <v>1186</v>
       </c>
@@ -28518,7 +28518,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="391" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="6" t="s">
         <v>1053</v>
       </c>
@@ -28532,7 +28532,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="392" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="6" t="s">
         <v>744</v>
       </c>
@@ -28546,7 +28546,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="393" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="6" t="s">
         <v>716</v>
       </c>
@@ -28560,7 +28560,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="394" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="6" t="s">
         <v>731</v>
       </c>
@@ -28574,7 +28574,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="395" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="7" t="s">
         <v>1548</v>
       </c>
@@ -28588,7 +28588,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="396" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="6" t="s">
         <v>752</v>
       </c>
@@ -28602,7 +28602,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="397" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="6" t="s">
         <v>1066</v>
       </c>
@@ -28616,7 +28616,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="398" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="6" t="s">
         <v>1211</v>
       </c>
@@ -28630,7 +28630,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="399" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="6" t="s">
         <v>723</v>
       </c>
@@ -28644,7 +28644,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="400" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="6" t="s">
         <v>724</v>
       </c>
@@ -28658,7 +28658,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="401" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="7" t="s">
         <v>1561</v>
       </c>
@@ -28672,7 +28672,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="402" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
         <v>1562</v>
       </c>
@@ -28686,7 +28686,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="403" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="7" t="s">
         <v>1567</v>
       </c>
@@ -28700,7 +28700,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="404" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="6" t="s">
         <v>1334</v>
       </c>
@@ -28714,7 +28714,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="405" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="7" t="s">
         <v>1592</v>
       </c>
@@ -28728,7 +28728,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="406" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="6" t="s">
         <v>500</v>
       </c>
@@ -28742,7 +28742,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="407" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="6" t="s">
         <v>498</v>
       </c>
@@ -28756,7 +28756,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="408" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="6" t="s">
         <v>887</v>
       </c>
@@ -28770,7 +28770,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="409" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="7" t="s">
         <v>1553</v>
       </c>
@@ -28784,7 +28784,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="410" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="6" t="s">
         <v>1197</v>
       </c>
@@ -28798,7 +28798,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="411" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="6" t="s">
         <v>513</v>
       </c>
@@ -28812,7 +28812,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="412" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
         <v>1587</v>
       </c>
@@ -28826,7 +28826,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="413" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="6" t="s">
         <v>1360</v>
       </c>
@@ -28840,7 +28840,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="414" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="7" t="s">
         <v>1584</v>
       </c>
@@ -28854,7 +28854,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="415" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="7" t="s">
         <v>1572</v>
       </c>
@@ -28868,7 +28868,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="416" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="7" t="s">
         <v>1589</v>
       </c>
@@ -28882,7 +28882,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="417" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="7" t="s">
         <v>1314</v>
       </c>
@@ -28896,7 +28896,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="418" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="6" t="s">
         <v>532</v>
       </c>
@@ -28910,7 +28910,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="419" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="6" t="s">
         <v>1336</v>
       </c>
@@ -28924,7 +28924,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="420" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="6" t="s">
         <v>1201</v>
       </c>
@@ -28938,7 +28938,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="421" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="6" t="s">
         <v>1068</v>
       </c>
@@ -28952,7 +28952,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="422" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="6" t="s">
         <v>1199</v>
       </c>
@@ -28966,7 +28966,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="423" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="6" t="s">
         <v>542</v>
       </c>
@@ -28980,7 +28980,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="424" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="6" t="s">
         <v>1279</v>
       </c>
@@ -28994,7 +28994,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="425" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="6" t="s">
         <v>543</v>
       </c>
@@ -29008,7 +29008,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="426" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="6" t="s">
         <v>544</v>
       </c>
@@ -29022,7 +29022,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="427" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="6" t="s">
         <v>1029</v>
       </c>
@@ -29036,7 +29036,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="428" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="6" t="s">
         <v>885</v>
       </c>
@@ -29050,7 +29050,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="429" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="6" t="s">
         <v>545</v>
       </c>
@@ -29064,7 +29064,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="430" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="6" t="s">
         <v>1169</v>
       </c>
@@ -29078,7 +29078,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="431" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="6" t="s">
         <v>562</v>
       </c>
@@ -29092,7 +29092,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="432" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="6" t="s">
         <v>1283</v>
       </c>
@@ -29106,7 +29106,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="433" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="6" t="s">
         <v>565</v>
       </c>
@@ -29120,7 +29120,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="434" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="7" t="s">
         <v>1538</v>
       </c>
@@ -29134,7 +29134,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="435" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="7" t="s">
         <v>1540</v>
       </c>
@@ -29148,7 +29148,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="436" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="7" t="s">
         <v>1539</v>
       </c>
@@ -29162,7 +29162,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="437" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="6" t="s">
         <v>593</v>
       </c>
@@ -29176,7 +29176,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="438" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="7" t="s">
         <v>1591</v>
       </c>
@@ -29190,7 +29190,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="439" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="7" t="s">
         <v>1564</v>
       </c>
@@ -29204,7 +29204,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="440" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="6" t="s">
         <v>1056</v>
       </c>
@@ -29218,7 +29218,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="441" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="6" t="s">
         <v>602</v>
       </c>
@@ -29232,7 +29232,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="442" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="7" t="s">
         <v>1590</v>
       </c>
@@ -29246,7 +29246,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="443" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="7" t="s">
         <v>1563</v>
       </c>
@@ -29260,7 +29260,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="444" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="7" t="s">
         <v>1580</v>
       </c>
@@ -29274,7 +29274,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="445" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="6" t="s">
         <v>607</v>
       </c>
@@ -29288,7 +29288,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="446" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="6" t="s">
         <v>612</v>
       </c>
@@ -29302,7 +29302,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="447" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="6" t="s">
         <v>614</v>
       </c>
@@ -29316,7 +29316,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="448" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="6" t="s">
         <v>615</v>
       </c>
@@ -29330,7 +29330,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="449" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="6" t="s">
         <v>1227</v>
       </c>
@@ -29344,7 +29344,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="450" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="6" t="s">
         <v>849</v>
       </c>
@@ -29358,7 +29358,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="451" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="6" t="s">
         <v>1015</v>
       </c>
@@ -29372,7 +29372,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="452" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="6" t="s">
         <v>616</v>
       </c>
@@ -29386,7 +29386,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="453" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="7" t="s">
         <v>1579</v>
       </c>
@@ -29400,7 +29400,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="454" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="7" t="s">
         <v>1575</v>
       </c>
@@ -29414,7 +29414,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="455" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="7" t="s">
         <v>1574</v>
       </c>
@@ -29428,7 +29428,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="456" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="6" t="s">
         <v>622</v>
       </c>
@@ -29442,7 +29442,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="457" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="6" t="s">
         <v>1266</v>
       </c>
@@ -29456,7 +29456,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="458" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="6" t="s">
         <v>628</v>
       </c>
@@ -29470,7 +29470,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="459" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="6" t="s">
         <v>623</v>
       </c>
@@ -29484,7 +29484,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="460" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="6" t="s">
         <v>624</v>
       </c>
@@ -29498,7 +29498,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="461" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="6" t="s">
         <v>625</v>
       </c>
@@ -29512,7 +29512,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="462" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="6" t="s">
         <v>626</v>
       </c>
@@ -29526,7 +29526,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="463" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="6" t="s">
         <v>627</v>
       </c>
@@ -29540,7 +29540,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="464" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="6" t="s">
         <v>629</v>
       </c>
@@ -29554,7 +29554,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="465" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="6" t="s">
         <v>850</v>
       </c>
@@ -29568,7 +29568,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="466" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="6" t="s">
         <v>1021</v>
       </c>
@@ -29582,7 +29582,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="467" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="6" t="s">
         <v>630</v>
       </c>
@@ -29596,7 +29596,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="468" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="6" t="s">
         <v>631</v>
       </c>
@@ -29610,7 +29610,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="469" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="6" t="s">
         <v>1027</v>
       </c>
@@ -29624,7 +29624,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="470" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="6" t="s">
         <v>1019</v>
       </c>
@@ -29638,7 +29638,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="471" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="6" t="s">
         <v>632</v>
       </c>
@@ -29652,7 +29652,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="472" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="6" t="s">
         <v>633</v>
       </c>
@@ -29666,7 +29666,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="473" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="6" t="s">
         <v>634</v>
       </c>
@@ -29680,7 +29680,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="474" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="6" t="s">
         <v>635</v>
       </c>
@@ -29694,7 +29694,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="475" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="6" t="s">
         <v>636</v>
       </c>
@@ -29708,7 +29708,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="476" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="6" t="s">
         <v>637</v>
       </c>
@@ -29722,7 +29722,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="477" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="6" t="s">
         <v>638</v>
       </c>
@@ -29736,7 +29736,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="478" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="6" t="s">
         <v>641</v>
       </c>
@@ -29750,7 +29750,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="479" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="6" t="s">
         <v>642</v>
       </c>
@@ -29764,7 +29764,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="480" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="6" t="s">
         <v>639</v>
       </c>
@@ -29778,7 +29778,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="481" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="6" t="s">
         <v>640</v>
       </c>
@@ -29792,7 +29792,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="482" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="6" t="s">
         <v>643</v>
       </c>
@@ -29806,7 +29806,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="483" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="6" t="s">
         <v>644</v>
       </c>
@@ -29820,7 +29820,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="484" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A484" s="6" t="s">
         <v>645</v>
       </c>
@@ -29834,7 +29834,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="485" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="6" t="s">
         <v>654</v>
       </c>
@@ -29848,7 +29848,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="486" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="6" t="s">
         <v>1281</v>
       </c>
@@ -29862,7 +29862,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="487" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="6" t="s">
         <v>1013</v>
       </c>
@@ -29876,7 +29876,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="488" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="6" t="s">
         <v>661</v>
       </c>
@@ -29890,7 +29890,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="489" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="7" t="s">
         <v>1559</v>
       </c>
@@ -29904,7 +29904,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="490" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="6" t="s">
         <v>835</v>
       </c>
@@ -29918,7 +29918,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="491" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="6" t="s">
         <v>833</v>
       </c>
@@ -29932,7 +29932,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="492" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="6" t="s">
         <v>1069</v>
       </c>
@@ -29946,7 +29946,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="493" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="7" t="s">
         <v>1571</v>
       </c>
@@ -29960,7 +29960,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="494" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="6" t="s">
         <v>688</v>
       </c>
@@ -29974,7 +29974,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="495" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="6" t="s">
         <v>689</v>
       </c>
@@ -29988,7 +29988,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="496" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="7" t="s">
         <v>1330</v>
       </c>
@@ -30002,7 +30002,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="497" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="6" t="s">
         <v>1057</v>
       </c>
@@ -30016,7 +30016,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="498" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="6" t="s">
         <v>1058</v>
       </c>
@@ -30030,7 +30030,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="499" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="7" t="s">
         <v>1545</v>
       </c>
@@ -30044,7 +30044,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="500" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A500" s="6" t="s">
         <v>699</v>
       </c>
@@ -30058,7 +30058,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="501" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="6" t="s">
         <v>1195</v>
       </c>
@@ -30072,7 +30072,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="502" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="6" t="s">
         <v>705</v>
       </c>
@@ -30086,7 +30086,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="503" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="6" t="s">
         <v>715</v>
       </c>
@@ -30100,7 +30100,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="504" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="7" t="s">
         <v>1265</v>
       </c>
@@ -30114,7 +30114,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="505" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="6" t="s">
         <v>1125</v>
       </c>
@@ -30128,7 +30128,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="506" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="6" t="s">
         <v>1459</v>
       </c>
@@ -30142,7 +30142,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="507" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="6" t="s">
         <v>868</v>
       </c>
@@ -30156,7 +30156,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="508" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="6" t="s">
         <v>864</v>
       </c>
@@ -30170,7 +30170,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="509" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="6" t="s">
         <v>526</v>
       </c>
@@ -30184,7 +30184,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="510" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="6" t="s">
         <v>1047</v>
       </c>
@@ -30198,7 +30198,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="511" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="6" t="s">
         <v>865</v>
       </c>
@@ -30212,7 +30212,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="512" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="6" t="s">
         <v>838</v>
       </c>
@@ -30226,7 +30226,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="513" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="6" t="s">
         <v>837</v>
       </c>
@@ -30240,7 +30240,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="514" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="7" t="s">
         <v>1569</v>
       </c>
@@ -30254,7 +30254,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="515" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="6" t="s">
         <v>836</v>
       </c>
@@ -30268,7 +30268,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="516" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="6" t="s">
         <v>1130</v>
       </c>
@@ -30282,7 +30282,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="517" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="6" t="s">
         <v>1362</v>
       </c>
@@ -30296,7 +30296,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="518" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="6" t="s">
         <v>1129</v>
       </c>
@@ -30310,7 +30310,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="519" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="6" t="s">
         <v>594</v>
       </c>
@@ -30324,7 +30324,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="520" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="6" t="s">
         <v>608</v>
       </c>
@@ -30338,7 +30338,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="521" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="6" t="s">
         <v>609</v>
       </c>
@@ -30352,7 +30352,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="522" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="6" t="s">
         <v>610</v>
       </c>
@@ -30366,7 +30366,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="523" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="6" t="s">
         <v>611</v>
       </c>
@@ -30380,7 +30380,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="524" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="6" t="s">
         <v>613</v>
       </c>
@@ -30394,7 +30394,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="525" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="6" t="s">
         <v>1269</v>
       </c>
@@ -30408,7 +30408,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="526" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="6" t="s">
         <v>1001</v>
       </c>
@@ -30422,7 +30422,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="527" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="6" t="s">
         <v>881</v>
       </c>
@@ -30436,7 +30436,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="528" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="6" t="s">
         <v>867</v>
       </c>
@@ -30450,7 +30450,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="529" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="6" t="s">
         <v>1018</v>
       </c>
@@ -30464,7 +30464,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="530" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="6" t="s">
         <v>1230</v>
       </c>
@@ -30478,7 +30478,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="531" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="7" t="s">
         <v>1521</v>
       </c>
@@ -30492,7 +30492,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="532" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="6" t="s">
         <v>863</v>
       </c>
@@ -30506,7 +30506,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="533" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="6" t="s">
         <v>862</v>
       </c>
@@ -30520,7 +30520,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="534" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="7" t="s">
         <v>1310</v>
       </c>
@@ -30534,7 +30534,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="535" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="6" t="s">
         <v>1124</v>
       </c>
@@ -30548,7 +30548,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="536" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="6" t="s">
         <v>1131</v>
       </c>
@@ -30562,7 +30562,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="537" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="6" t="s">
         <v>876</v>
       </c>
@@ -30576,7 +30576,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="538" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="6" t="s">
         <v>866</v>
       </c>
@@ -30590,7 +30590,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="539" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="7" t="s">
         <v>1607</v>
       </c>
@@ -30604,7 +30604,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="540" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="6" t="s">
         <v>1078</v>
       </c>
@@ -30618,7 +30618,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="541" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="6" t="s">
         <v>1127</v>
       </c>
@@ -30632,7 +30632,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="542" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="6" t="s">
         <v>667</v>
       </c>
@@ -30646,7 +30646,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="543" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="6" t="s">
         <v>1123</v>
       </c>
@@ -30660,7 +30660,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="544" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="6" t="s">
         <v>1184</v>
       </c>
@@ -30674,7 +30674,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="545" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="6" t="s">
         <v>692</v>
       </c>
@@ -30688,7 +30688,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="546" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="7" t="s">
         <v>1328</v>
       </c>
@@ -30702,7 +30702,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="547" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="7" t="s">
         <v>1326</v>
       </c>
@@ -30716,7 +30716,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="548" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="6" t="s">
         <v>720</v>
       </c>
@@ -30730,7 +30730,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="549" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A549" s="6" t="s">
         <v>721</v>
       </c>
@@ -30744,7 +30744,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="550" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="6" t="s">
         <v>722</v>
       </c>
@@ -30758,7 +30758,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="551" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="6" t="s">
         <v>879</v>
       </c>
@@ -30772,7 +30772,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="552" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="6" t="s">
         <v>495</v>
       </c>
@@ -30786,7 +30786,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="553" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="7" t="s">
         <v>1605</v>
       </c>
@@ -30800,7 +30800,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="554" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="7" t="s">
         <v>1573</v>
       </c>
@@ -30814,7 +30814,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="555" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="7" t="s">
         <v>1603</v>
       </c>
@@ -30828,7 +30828,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="556" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="7" t="s">
         <v>1316</v>
       </c>
@@ -30842,7 +30842,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="557" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="6" t="s">
         <v>1277</v>
       </c>
@@ -30856,7 +30856,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="558" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="6" t="s">
         <v>561</v>
       </c>
@@ -30870,7 +30870,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="559" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="6" t="s">
         <v>578</v>
       </c>
@@ -30884,7 +30884,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="560" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="6" t="s">
         <v>834</v>
       </c>
@@ -30898,7 +30898,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="561" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="7" t="s">
         <v>1568</v>
       </c>
@@ -30912,7 +30912,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="562" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="6" t="s">
         <v>1070</v>
       </c>
@@ -30926,7 +30926,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="563" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="6" t="s">
         <v>1071</v>
       </c>
@@ -30940,7 +30940,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="564" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="6" t="s">
         <v>595</v>
       </c>
@@ -30954,7 +30954,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="565" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="6" t="s">
         <v>646</v>
       </c>
@@ -30968,7 +30968,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="566" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="6" t="s">
         <v>647</v>
       </c>
@@ -30982,7 +30982,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="567" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="6" t="s">
         <v>1126</v>
       </c>
@@ -30996,7 +30996,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="568" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="7" t="s">
         <v>1523</v>
       </c>
@@ -31010,7 +31010,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="569" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="6" t="s">
         <v>1128</v>
       </c>
@@ -31024,7 +31024,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="570" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="6" t="s">
         <v>655</v>
       </c>
@@ -31038,7 +31038,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="571" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="7" t="s">
         <v>1560</v>
       </c>
@@ -31052,7 +31052,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="572" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="7" t="s">
         <v>1601</v>
       </c>
@@ -31066,7 +31066,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="573" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="7" t="s">
         <v>1594</v>
       </c>
@@ -31080,7 +31080,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="574" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="7" t="s">
         <v>1542</v>
       </c>
@@ -31094,7 +31094,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="575" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="6" t="s">
         <v>687</v>
       </c>
@@ -31108,7 +31108,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="576" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="6" t="s">
         <v>691</v>
       </c>
@@ -31122,7 +31122,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="577" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="6" t="s">
         <v>709</v>
       </c>
@@ -31136,7 +31136,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="578" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="6" t="s">
         <v>717</v>
       </c>
@@ -31150,7 +31150,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="579" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="6" t="s">
         <v>718</v>
       </c>
@@ -31164,7 +31164,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="580" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="6" t="s">
         <v>1273</v>
       </c>
@@ -31178,7 +31178,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="581" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="6" t="s">
         <v>719</v>
       </c>
@@ -31192,7 +31192,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="582" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="7" t="s">
         <v>1271</v>
       </c>
@@ -31206,7 +31206,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="583" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="7" t="s">
         <v>1609</v>
       </c>
@@ -31220,7 +31220,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="584" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="6" t="s">
         <v>1158</v>
       </c>
@@ -31234,7 +31234,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="585" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="6" t="s">
         <v>539</v>
       </c>
@@ -31248,7 +31248,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="586" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="6" t="s">
         <v>1073</v>
       </c>
@@ -31262,7 +31262,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="587" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="6" t="s">
         <v>1075</v>
       </c>
@@ -31276,7 +31276,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="588" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="6" t="s">
         <v>1306</v>
       </c>
@@ -31290,7 +31290,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="589" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="6" t="s">
         <v>1062</v>
       </c>
@@ -31304,7 +31304,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="590" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A590" s="6" t="s">
         <v>1159</v>
       </c>
@@ -31318,7 +31318,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="591" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="6" t="s">
         <v>1163</v>
       </c>
@@ -31332,7 +31332,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="592" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A592" s="6" t="s">
         <v>1161</v>
       </c>
@@ -31346,10 +31346,10 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="594" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState ref="A2:E594">
-    <sortCondition ref="A559"/>
+  <sortState ref="A1:D594">
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
